--- a/data/stat probs/jaxson hayes stat probs - condition.xlsx
+++ b/data/stat probs/jaxson hayes stat probs - condition.xlsx
@@ -21,28 +21,28 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 after 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 after 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 full" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 full" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 before 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 before 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 full" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 full" sheetId="36" state="visible" r:id="rId36"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 full" sheetId="38" state="visible" r:id="rId38"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 regular" sheetId="39" state="visible" r:id="rId39"/>
@@ -118,7 +118,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phx 2023 full" sheetId="109" state="visible" r:id="rId109"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="-171 after 2023 regular" sheetId="110" state="visible" r:id="rId110"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="-171 after 2023 full" sheetId="111" state="visible" r:id="rId111"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="221 before 2023 postseason" sheetId="112" state="visible" r:id="rId112"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="223 before 2023 postseason" sheetId="112" state="visible" r:id="rId112"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="187 after 2023 postseason" sheetId="113" state="visible" r:id="rId113"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="187 after 2023 full" sheetId="114" state="visible" r:id="rId114"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="-171 before 2023 full" sheetId="115" state="visible" r:id="rId115"/>
@@ -602,28 +602,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1764,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2082,16 +2082,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2276,16 +2276,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2730,22 +2730,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2892,22 +2892,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3060,16 +3060,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3190,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3640,22 +3640,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4026,22 +4026,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4412,22 +4412,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4798,22 +4798,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5190,10 +5190,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5320,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5450,10 +5450,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5506,6 +5506,458 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>67</v>
+      </c>
+      <c r="H2" t="n">
+        <v>33</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>67</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>33</v>
+      </c>
+      <c r="H3" t="n">
+        <v>67</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>67</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17</v>
+      </c>
+      <c r="H4" t="n">
+        <v>83</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>67</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>83</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F6" t="n">
+        <v>83</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>67</v>
+      </c>
+      <c r="H2" t="n">
+        <v>33</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>67</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>33</v>
+      </c>
+      <c r="H3" t="n">
+        <v>67</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>67</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17</v>
+      </c>
+      <c r="H4" t="n">
+        <v>83</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>67</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>83</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F6" t="n">
+        <v>83</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5574,22 +6026,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6083,7 +6535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6152,22 +6604,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6653,330 +7105,6 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7054,16 +7182,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7216,22 +7344,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7602,16 +7730,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7701,7 +7829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7764,16 +7892,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7786,6 +7914,70 @@
       </c>
       <c r="J2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7799,7 +7991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7862,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7884,6 +8076,70 @@
       </c>
       <c r="J2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8093,7 +8349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8180,492 +8436,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>88</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>96</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>54</v>
-      </c>
-      <c r="H3" t="n">
-        <v>46</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>83</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17</v>
-      </c>
-      <c r="E4" t="n">
-        <v>79</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21</v>
-      </c>
-      <c r="G4" t="n">
-        <v>17</v>
-      </c>
-      <c r="H4" t="n">
-        <v>83</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>58</v>
-      </c>
-      <c r="F5" t="n">
-        <v>42</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>92</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>67</v>
-      </c>
-      <c r="D6" t="n">
-        <v>33</v>
-      </c>
-      <c r="E6" t="n">
-        <v>29</v>
-      </c>
-      <c r="F6" t="n">
-        <v>71</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>46</v>
-      </c>
-      <c r="D7" t="n">
-        <v>54</v>
-      </c>
-      <c r="E7" t="n">
-        <v>17</v>
-      </c>
-      <c r="F7" t="n">
-        <v>83</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D8" t="n">
-        <v>62</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F8" t="n">
-        <v>88</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>75</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>96</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>17</v>
-      </c>
-      <c r="D11" t="n">
-        <v>83</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>17</v>
-      </c>
-      <c r="D12" t="n">
-        <v>83</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" t="n">
-        <v>88</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>88</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" t="n">
-        <v>88</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>12</v>
-      </c>
-      <c r="D16" t="n">
-        <v>88</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>96</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8734,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -9243,7 +9117,585 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>88</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>96</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H2" t="n">
+        <v>54</v>
+      </c>
+      <c r="I2" t="n">
+        <v>92</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>54</v>
+      </c>
+      <c r="H3" t="n">
+        <v>46</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>83</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>79</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17</v>
+      </c>
+      <c r="H4" t="n">
+        <v>83</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>58</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>92</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33</v>
+      </c>
+      <c r="E6" t="n">
+        <v>29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>71</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>46</v>
+      </c>
+      <c r="D7" t="n">
+        <v>54</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>62</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>88</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>96</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17</v>
+      </c>
+      <c r="D11" t="n">
+        <v>83</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>83</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>88</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" t="n">
+        <v>88</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>88</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>96</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9312,16 +9764,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9525,874 +9977,6 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>67</v>
-      </c>
-      <c r="E4" t="n">
-        <v>67</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>67</v>
-      </c>
-      <c r="E5" t="n">
-        <v>67</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>33</v>
-      </c>
-      <c r="D7" t="n">
-        <v>67</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="n">
-        <v>67</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>83</v>
-      </c>
-      <c r="F3" t="n">
-        <v>17</v>
-      </c>
-      <c r="G3" t="n">
-        <v>46</v>
-      </c>
-      <c r="H3" t="n">
-        <v>54</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33</v>
-      </c>
-      <c r="E4" t="n">
-        <v>71</v>
-      </c>
-      <c r="F4" t="n">
-        <v>29</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12</v>
-      </c>
-      <c r="H4" t="n">
-        <v>88</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>62</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38</v>
-      </c>
-      <c r="E5" t="n">
-        <v>54</v>
-      </c>
-      <c r="F5" t="n">
-        <v>46</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>54</v>
-      </c>
-      <c r="D6" t="n">
-        <v>46</v>
-      </c>
-      <c r="E6" t="n">
-        <v>33</v>
-      </c>
-      <c r="F6" t="n">
-        <v>67</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>42</v>
-      </c>
-      <c r="D7" t="n">
-        <v>58</v>
-      </c>
-      <c r="E7" t="n">
-        <v>17</v>
-      </c>
-      <c r="F7" t="n">
-        <v>83</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>42</v>
-      </c>
-      <c r="D8" t="n">
-        <v>58</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F8" t="n">
-        <v>88</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="n">
-        <v>67</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>92</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="n">
-        <v>67</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>96</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>96</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>21</v>
-      </c>
-      <c r="D12" t="n">
-        <v>79</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>17</v>
-      </c>
-      <c r="D13" t="n">
-        <v>83</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>17</v>
-      </c>
-      <c r="D14" t="n">
-        <v>83</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>17</v>
-      </c>
-      <c r="D15" t="n">
-        <v>83</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>12</v>
-      </c>
-      <c r="D16" t="n">
-        <v>88</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>92</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10470,28 +10054,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -11172,6 +10756,296 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>67</v>
+      </c>
+      <c r="E4" t="n">
+        <v>67</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>67</v>
+      </c>
+      <c r="E5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11240,28 +11114,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -11749,7 +11623,585 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2" t="n">
+        <v>54</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46</v>
+      </c>
+      <c r="I2" t="n">
+        <v>88</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>46</v>
+      </c>
+      <c r="H3" t="n">
+        <v>54</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>71</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>88</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38</v>
+      </c>
+      <c r="E5" t="n">
+        <v>54</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>46</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>67</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>58</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>58</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>88</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>92</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>96</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>96</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>21</v>
+      </c>
+      <c r="D12" t="n">
+        <v>79</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>83</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17</v>
+      </c>
+      <c r="D14" t="n">
+        <v>83</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>83</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>88</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>92</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11818,22 +12270,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12071,7 +12523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12140,22 +12592,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12393,7 +12845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12462,22 +12914,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12683,7 +13135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12752,22 +13204,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12965,714 +13417,6 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29</v>
-      </c>
-      <c r="E3" t="n">
-        <v>71</v>
-      </c>
-      <c r="F3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G3" t="n">
-        <v>43</v>
-      </c>
-      <c r="H3" t="n">
-        <v>57</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>71</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29</v>
-      </c>
-      <c r="E4" t="n">
-        <v>57</v>
-      </c>
-      <c r="F4" t="n">
-        <v>43</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14</v>
-      </c>
-      <c r="H4" t="n">
-        <v>86</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>57</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43</v>
-      </c>
-      <c r="E5" t="n">
-        <v>57</v>
-      </c>
-      <c r="F5" t="n">
-        <v>43</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>43</v>
-      </c>
-      <c r="D6" t="n">
-        <v>57</v>
-      </c>
-      <c r="E6" t="n">
-        <v>29</v>
-      </c>
-      <c r="F6" t="n">
-        <v>71</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>43</v>
-      </c>
-      <c r="D7" t="n">
-        <v>57</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>43</v>
-      </c>
-      <c r="D8" t="n">
-        <v>57</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>14</v>
-      </c>
-      <c r="D9" t="n">
-        <v>86</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14</v>
-      </c>
-      <c r="D10" t="n">
-        <v>86</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29</v>
-      </c>
-      <c r="E3" t="n">
-        <v>71</v>
-      </c>
-      <c r="F3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G3" t="n">
-        <v>43</v>
-      </c>
-      <c r="H3" t="n">
-        <v>57</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>71</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29</v>
-      </c>
-      <c r="E4" t="n">
-        <v>57</v>
-      </c>
-      <c r="F4" t="n">
-        <v>43</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14</v>
-      </c>
-      <c r="H4" t="n">
-        <v>86</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>57</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43</v>
-      </c>
-      <c r="E5" t="n">
-        <v>57</v>
-      </c>
-      <c r="F5" t="n">
-        <v>43</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>43</v>
-      </c>
-      <c r="D6" t="n">
-        <v>57</v>
-      </c>
-      <c r="E6" t="n">
-        <v>29</v>
-      </c>
-      <c r="F6" t="n">
-        <v>71</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>43</v>
-      </c>
-      <c r="D7" t="n">
-        <v>57</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>43</v>
-      </c>
-      <c r="D8" t="n">
-        <v>57</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>14</v>
-      </c>
-      <c r="D9" t="n">
-        <v>86</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14</v>
-      </c>
-      <c r="D10" t="n">
-        <v>86</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13750,16 +13494,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13976,16 +13720,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14202,22 +13946,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14492,28 +14236,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -15070,22 +14814,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15360,28 +15104,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -16130,28 +15874,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -16900,22 +16644,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17670,22 +17414,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18056,22 +17800,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18826,22 +18570,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19276,22 +19020,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19726,22 +19470,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20304,22 +20048,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20882,22 +20626,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21268,22 +21012,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21814,22 +21558,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22360,22 +22104,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23130,22 +22874,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23900,22 +23644,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24158,22 +23902,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24416,22 +24160,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24962,22 +24706,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25514,16 +25258,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25644,16 +25388,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25768,28 +25512,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -26352,16 +26096,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26482,16 +26226,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26606,16 +26350,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26768,16 +26512,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26930,16 +26674,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27220,16 +26964,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27510,16 +27254,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27800,16 +27544,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -28090,22 +27834,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28380,22 +28124,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28670,28 +28414,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -29440,22 +29184,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29730,22 +29474,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30020,22 +29764,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30246,22 +29990,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30472,16 +30216,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -30826,16 +30570,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31180,16 +30924,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31470,16 +31214,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31760,22 +31504,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -32114,22 +31858,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -32468,28 +32212,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -33238,16 +32982,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -33528,16 +33272,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -33818,22 +33562,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -34108,22 +33852,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -34398,28 +34142,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -34816,28 +34560,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35234,28 +34978,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35748,28 +35492,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -36262,16 +36006,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -36280,10 +36024,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36456,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -36474,10 +36218,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36650,16 +36394,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -37036,22 +36780,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -37614,22 +37358,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -38192,16 +37936,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -38482,16 +38226,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -38778,10 +38522,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -38908,10 +38652,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -39038,10 +38782,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -39168,10 +38912,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -39298,10 +39042,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -39428,10 +39172,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
